--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -37,9 +37,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +50,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -57,15 +93,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,14 +149,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -95,44 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,40 +187,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,31 +203,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,145 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,51 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,56 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,13 +970,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
@@ -1016,6 +1016,23 @@
         <v>0.72</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43164</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.89</v>
+      </c>
+      <c r="D3">
+        <v>0.76</v>
+      </c>
+      <c r="E3">
+        <v>0.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>起始日期</t>
   </si>
@@ -30,16 +30,28 @@
   <si>
     <t>总完成率</t>
   </si>
+  <si>
+    <t>cont数</t>
+  </si>
+  <si>
+    <t>new数</t>
+  </si>
+  <si>
+    <t>(2/2)</t>
+  </si>
+  <si>
+    <t>23/25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +62,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -58,8 +112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,69 +127,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,13 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -163,32 +174,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,91 +221,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,85 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,15 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,6 +420,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,39 +498,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -502,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,141 +526,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,19 +985,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.375"/>
+    <col min="1" max="1" width="10.375"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,6 +1012,12 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1031,6 +1052,29 @@
       </c>
       <c r="E3">
         <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>43171</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.91</v>
+      </c>
+      <c r="D4">
+        <v>0.84</v>
+      </c>
+      <c r="E4">
+        <v>0.92</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13605" windowHeight="7320"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>起始日期</t>
   </si>
@@ -42,14 +42,20 @@
   <si>
     <t>23/25</t>
   </si>
+  <si>
+    <t>(4/4)</t>
+  </si>
+  <si>
+    <t>17/22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -63,63 +69,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -129,14 +123,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,19 +153,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,15 +191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,17 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,19 +221,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,19 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,139 +383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +431,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -441,17 +471,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -462,21 +485,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,11 +506,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +532,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
@@ -1077,6 +1083,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>43185</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.77</v>
+      </c>
+      <c r="D5">
+        <v>0.65</v>
+      </c>
+      <c r="E5">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>起始日期</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>17/22</t>
+  </si>
+  <si>
+    <t>(4/5)</t>
+  </si>
+  <si>
+    <t>(16/18)</t>
   </si>
 </sst>
 </file>
@@ -54,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,6 +81,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -101,13 +137,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,29 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -221,6 +227,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,42 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +418,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,15 +471,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -520,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
@@ -1106,6 +1112,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>43192</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.88</v>
+      </c>
+      <c r="D6">
+        <v>0.69</v>
+      </c>
+      <c r="E6">
+        <v>0.88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>起始日期</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>(16/18)</t>
+  </si>
+  <si>
+    <t>(3/3)</t>
+  </si>
+  <si>
+    <t>(16/24)</t>
   </si>
 </sst>
 </file>
@@ -61,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,20 +77,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,45 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -175,6 +128,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -191,14 +152,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +233,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,163 +353,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,21 +447,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -526,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,13 +1003,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
@@ -1135,6 +1141,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>43199</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.67</v>
+      </c>
+      <c r="D7">
+        <v>0.59</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView windowWidth="27765" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>起始日期</t>
   </si>
   <si>
-    <t>cont率</t>
+    <t>cont完成率</t>
   </si>
   <si>
     <t>new率</t>
@@ -34,31 +34,13 @@
     <t>cont数</t>
   </si>
   <si>
-    <t>new数</t>
+    <t>cont完成数</t>
   </si>
   <si>
-    <t>(2/2)</t>
+    <t>new总数</t>
   </si>
   <si>
-    <t>23/25</t>
-  </si>
-  <si>
-    <t>(4/4)</t>
-  </si>
-  <si>
-    <t>17/22</t>
-  </si>
-  <si>
-    <t>(4/5)</t>
-  </si>
-  <si>
-    <t>(16/18)</t>
-  </si>
-  <si>
-    <t>(3/3)</t>
-  </si>
-  <si>
-    <t>(16/24)</t>
+    <t>new完成数</t>
   </si>
 </sst>
 </file>
@@ -71,12 +53,27 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,6 +100,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -128,14 +163,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -152,6 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -159,44 +193,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,22 +213,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,12 +223,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,31 +331,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,127 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,144 +558,167 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,19 +1040,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
+    <col min="3" max="3" width="12.625"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,15 +1072,21 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
         <v>43136</v>
       </c>
       <c r="B2">
@@ -1054,9 +1101,13 @@
       <c r="E2">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
         <v>43164</v>
       </c>
       <c r="B3">
@@ -1071,98 +1122,222 @@
       <c r="E3">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
         <v>43171</v>
       </c>
       <c r="B4">
+        <f>G4/F4</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.91</v>
+        <f>I4/H4</f>
+        <v>0.92</v>
       </c>
       <c r="D4">
-        <v>0.84</v>
+        <f>I4/(F4+H4)</f>
+        <v>0.851851851851852</v>
       </c>
       <c r="E4">
-        <v>0.92</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+        <f>(G4+I4)/(F4+H4)</f>
+        <v>0.925925925925926</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>43185</v>
+      </c>
+      <c r="B5">
+        <f>G5/F5</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>I5/H5</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>I5/(F5+H5)</f>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E5">
+        <f>(G5+I5)/(F5+H5)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>43192</v>
+      </c>
+      <c r="B6">
+        <f>G6/F6</f>
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <f>I6/H6</f>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="D6">
+        <f>I6/(F6+H6)</f>
+        <v>0.695652173913043</v>
+      </c>
+      <c r="E6">
+        <f>(G6+I6)/(F6+H6)</f>
+        <v>0.869565217391304</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>43199</v>
+      </c>
+      <c r="B7">
+        <f>G7/F7</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>I7/H7</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D7">
+        <f>I7/(F7+H7)</f>
+        <v>0.592592592592593</v>
+      </c>
+      <c r="E7">
+        <f>(G7+I7)/(F7+H7)</f>
+        <v>0.703703703703704</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>43206</v>
+      </c>
+      <c r="B8">
+        <f>G8/F8</f>
+        <v>0.625</v>
+      </c>
+      <c r="C8">
+        <f>I8/H8</f>
+        <v>0.705882352941177</v>
+      </c>
+      <c r="D8">
+        <f>I8/(F8+H8)</f>
+        <v>0.48</v>
+      </c>
+      <c r="E8">
+        <f>(G8+I8)/(F8+H8)</f>
+        <v>0.68</v>
+      </c>
+      <c r="F8" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>43185</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.77</v>
-      </c>
-      <c r="D5">
-        <v>0.65</v>
-      </c>
-      <c r="E5">
-        <v>0.84</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>43192</v>
-      </c>
-      <c r="B6">
-        <v>0.8</v>
-      </c>
-      <c r="C6">
-        <v>0.88</v>
-      </c>
-      <c r="D6">
-        <v>0.69</v>
-      </c>
-      <c r="E6">
-        <v>0.88</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>43199</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.67</v>
-      </c>
-      <c r="D7">
-        <v>0.59</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
+    <row r="9" spans="6:9">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="6:9">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="6:9">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="6:9">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="6:9">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="6:9">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="6:9">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/附件/每周效率统计.xlsx
+++ b/附件/每周效率统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13230"/>
+    <workbookView windowWidth="23250" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -67,6 +67,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,8 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,28 +201,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,13 +235,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,181 +295,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +449,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -546,149 +534,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,24 +686,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -780,6 +762,1187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2018 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>第二季度</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cont完成率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>起始日期</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>2018/2/5</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/5</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/12</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/26</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/2</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/9</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/16</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.777777777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>起始日期</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>2018/2/5</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/5</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/12</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018/3/26</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/2</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/9</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/16</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/4/30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.705882352941177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="711715950"/>
+        <c:axId val="709012322"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>新任务及时完成率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.851851851851852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.695652173913043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.368421052631579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总完成率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.869565217391304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.703703703703704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.736842105263158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="711715950"/>
+        <c:axId val="709012322"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="711715950"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709012322"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="709012322"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711715950"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="635" y="2930525"/>
+        <a:ext cx="7114540" cy="3705860"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,13 +2206,13 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
-    <col min="3" max="3" width="12.625"/>
+    <col min="2" max="3" width="12.625"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="12.625"/>
     <col min="6" max="7" width="9" style="1"/>
@@ -1072,21 +2235,21 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
         <v>43136</v>
       </c>
       <c r="B2">
@@ -1101,13 +2264,9 @@
       <c r="E2">
         <v>0.72</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <v>43164</v>
       </c>
       <c r="B3">
@@ -1122,15 +2281,12 @@
       <c r="E3">
         <v>0.91</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>43171</v>
       </c>
       <c r="B4">
@@ -1149,21 +2305,21 @@
         <f>(G4+I4)/(F4+H4)</f>
         <v>0.925925925925926</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>25</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43185</v>
       </c>
       <c r="B5">
@@ -1182,21 +2338,21 @@
         <f>(G5+I5)/(F5+H5)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>17</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>43192</v>
       </c>
       <c r="B6">
@@ -1215,21 +2371,21 @@
         <f>(G6+I6)/(F6+H6)</f>
         <v>0.869565217391304</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>18</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43199</v>
       </c>
       <c r="B7">
@@ -1248,21 +2404,21 @@
         <f>(G7+I7)/(F7+H7)</f>
         <v>0.703703703703704</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>24</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>43206</v>
       </c>
       <c r="B8">
@@ -1281,66 +2437,58 @@
         <f>(G8+I8)/(F8+H8)</f>
         <v>0.68</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>17</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="6:9">
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="6:9">
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="6:9">
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="6:9">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="6:9">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="6:9">
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B9">
+        <f>G9/F9</f>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="C9">
+        <f>I9/H9</f>
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <f>I9/(F9+H9)</f>
+        <v>0.368421052631579</v>
+      </c>
+      <c r="E9">
+        <f>(G9+I9)/(F9+H9)</f>
+        <v>0.736842105263158</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="8:8">
-      <c r="H20" s="9"/>
+      <c r="H20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>